--- a/reproducibility/data_preparation_and_imputation/raw_scripts/summary.xlsx
+++ b/reproducibility/data_preparation_and_imputation/raw_scripts/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_579990FC8C48151489801D56E23ACEACB458ACE1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1BDA6D34-240D-4506-895D-CA2E43769C43}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_579990FC8C48151489801D56E23ACEACB458ACE1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9EE0005-DA07-439B-BD84-1FDD129F6D6F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,8 +50,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{24DF211E-4C33-4D1D-8860-D58AC7228C59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Our memory is 128GB but the RSS is this. Only scImpute will return this weird value.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="634">
   <si>
     <t>Median</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2521,6 +2555,10 @@
   <si>
     <t xml:space="preserve"> 10k cells 10k genes</t>
   </si>
+  <si>
+    <t>MAGIC (16 cores)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2531,7 +2569,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2708,6 +2746,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -22410,12 +22461,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22427,14 +22478,15 @@
     <col min="5" max="5" width="18.125" style="146" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="144" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.625" style="129" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="129" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="144" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" style="129" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5" style="129" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="129"/>
+    <col min="8" max="8" width="16.75" style="146" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="129" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="144" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.125" style="129" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5" style="129" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="129"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="152" t="s">
         <v>619</v>
       </c>
@@ -22447,8 +22499,9 @@
       <c r="I1" s="152"/>
       <c r="J1" s="152"/>
       <c r="K1" s="152"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="152"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="134" t="s">
         <v>608</v>
       </c>
@@ -22467,20 +22520,23 @@
       <c r="G2" s="129" t="s">
         <v>603</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
+        <v>633</v>
+      </c>
+      <c r="I2" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="144" t="s">
+      <c r="J2" s="144" t="s">
         <v>627</v>
       </c>
-      <c r="J2" s="129" t="s">
+      <c r="K2" s="129" t="s">
         <v>604</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="L2" s="129" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="140" t="s">
         <v>609</v>
       </c>
@@ -22502,20 +22558,23 @@
       <c r="G3" s="139">
         <v>1.2426418860800001E-2</v>
       </c>
-      <c r="H3" s="139">
+      <c r="H3" s="140">
+        <v>2.2091796663099999E-2</v>
+      </c>
+      <c r="I3" s="139">
         <v>0.134973683092</v>
       </c>
-      <c r="I3" s="139">
+      <c r="J3" s="139">
         <v>3.7066705293100001E-2</v>
       </c>
-      <c r="J3" s="140">
+      <c r="K3" s="140">
         <v>2.74235044585E-2</v>
       </c>
-      <c r="K3" s="140">
+      <c r="L3" s="140">
         <v>6.4365731676400001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="151" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="183" t="s">
         <v>609</v>
       </c>
@@ -22538,19 +22597,22 @@
         <v>0.27360474917599997</v>
       </c>
       <c r="H4" s="151">
+        <v>6.8553511434100003E-2</v>
+      </c>
+      <c r="I4" s="151">
         <v>8.9685713317700005E-2</v>
       </c>
-      <c r="I4" s="151">
+      <c r="J4" s="151">
         <v>9.8346151113499994E-2</v>
       </c>
-      <c r="J4" s="151">
+      <c r="K4" s="151">
         <v>8.4088591933299997E-2</v>
       </c>
-      <c r="K4" s="151">
+      <c r="L4" s="151">
         <v>0.261632181671</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="130" t="s">
         <v>609</v>
       </c>
@@ -22572,20 +22634,23 @@
       <c r="G5" s="129">
         <v>1.11414628029</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="146">
+        <v>0.27299691855899999</v>
+      </c>
+      <c r="I5" s="129">
         <v>0.16352938969899999</v>
       </c>
-      <c r="I5" s="144">
+      <c r="J5" s="144">
         <v>0.26813138028</v>
       </c>
-      <c r="J5" s="129">
+      <c r="K5" s="129">
         <v>0.14551665922000001</v>
       </c>
-      <c r="K5" s="129">
+      <c r="L5" s="129">
         <v>0.50098643276400001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="130" t="s">
         <v>609</v>
       </c>
@@ -22607,20 +22672,23 @@
       <c r="G6" s="129">
         <v>25.764198336100002</v>
       </c>
-      <c r="H6" s="129">
+      <c r="H6" s="146">
+        <v>6.4404423250100002</v>
+      </c>
+      <c r="I6" s="129">
         <v>0.69520848856999995</v>
       </c>
-      <c r="I6" s="144">
+      <c r="J6" s="144">
         <v>0.67294765942599999</v>
       </c>
-      <c r="J6" s="129">
+      <c r="K6" s="129">
         <v>0.69803188939899996</v>
       </c>
-      <c r="K6" s="129">
+      <c r="L6" s="129">
         <v>2.5840653580400001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
         <v>609</v>
       </c>
@@ -22642,20 +22710,23 @@
       <c r="G7" s="132" t="s">
         <v>624</v>
       </c>
-      <c r="H7" s="129">
+      <c r="H7" s="146" t="s">
+        <v>628</v>
+      </c>
+      <c r="I7" s="129">
         <v>1.8210342792000001</v>
       </c>
-      <c r="I7" s="144">
+      <c r="J7" s="144">
         <v>1.8523338546999999</v>
       </c>
-      <c r="J7" s="129">
+      <c r="K7" s="129">
         <v>1.8720427335600001</v>
       </c>
-      <c r="K7" s="129">
+      <c r="L7" s="129">
         <v>6.6413623097199999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="136" t="s">
         <v>609</v>
       </c>
@@ -22677,20 +22748,23 @@
       <c r="G8" s="135" t="s">
         <v>607</v>
       </c>
-      <c r="H8" s="135">
+      <c r="H8" s="135" t="s">
+        <v>628</v>
+      </c>
+      <c r="I8" s="135">
         <v>3.7112332858600001</v>
       </c>
-      <c r="I8" s="135">
+      <c r="J8" s="135">
         <v>3.4850279767000001</v>
       </c>
-      <c r="J8" s="135">
+      <c r="K8" s="135">
         <v>3.6484481902899999</v>
       </c>
-      <c r="K8" s="135">
+      <c r="L8" s="135">
         <v>13.44191152</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="138" t="s">
         <v>609</v>
       </c>
@@ -22703,23 +22777,32 @@
       <c r="D9" s="140">
         <v>0.95208440111699999</v>
       </c>
+      <c r="E9" s="140">
+        <v>9.2267488724700009</v>
+      </c>
+      <c r="F9" s="140">
+        <v>34.782319802799996</v>
+      </c>
       <c r="G9" s="140">
         <v>1.35677499904E-2</v>
       </c>
       <c r="H9" s="140">
+        <v>1.1246862279E-2</v>
+      </c>
+      <c r="I9" s="140">
         <v>6.3331372804100006E-2</v>
       </c>
-      <c r="I9" s="140">
+      <c r="J9" s="140">
         <v>5.3162042233700003E-2</v>
       </c>
-      <c r="J9" s="140">
+      <c r="K9" s="140">
         <v>4.1074952218300001E-2</v>
       </c>
-      <c r="K9" s="140">
+      <c r="L9" s="140">
         <v>7.8795303304999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="151" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="183" t="s">
         <v>609</v>
       </c>
@@ -22742,19 +22825,22 @@
         <v>0.21752955191699999</v>
       </c>
       <c r="H10" s="151">
+        <v>7.57786591185E-2</v>
+      </c>
+      <c r="I10" s="151">
         <v>0.12341767642199999</v>
       </c>
-      <c r="I10" s="151">
+      <c r="J10" s="151">
         <v>0.20551243861499999</v>
       </c>
-      <c r="J10" s="151">
+      <c r="K10" s="151">
         <v>0.16508285277400001</v>
       </c>
-      <c r="K10" s="151">
+      <c r="L10" s="151">
         <v>0.35770290474100003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="130" t="s">
         <v>609</v>
       </c>
@@ -22776,20 +22862,23 @@
       <c r="G11" s="129">
         <v>1.0157527186499999</v>
       </c>
-      <c r="H11" s="129">
+      <c r="H11" s="146">
+        <v>0.31891327195699998</v>
+      </c>
+      <c r="I11" s="129">
         <v>0.21640345441</v>
       </c>
-      <c r="I11" s="144">
+      <c r="J11" s="144">
         <v>0.39837909221599999</v>
       </c>
-      <c r="J11" s="129">
+      <c r="K11" s="129">
         <v>0.41019135110900001</v>
       </c>
-      <c r="K11" s="129">
+      <c r="L11" s="129">
         <v>0.71541406419499998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="130" t="s">
         <v>609</v>
       </c>
@@ -22811,20 +22900,23 @@
       <c r="G12" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="H12" s="129">
+      <c r="H12" s="146" t="s">
+        <v>628</v>
+      </c>
+      <c r="I12" s="129">
         <v>0.20926609224699999</v>
       </c>
-      <c r="I12" s="144">
+      <c r="J12" s="144">
         <v>2.3663175233199998</v>
       </c>
-      <c r="J12" s="129">
+      <c r="K12" s="129">
         <v>1.82648061607</v>
       </c>
-      <c r="K12" s="129">
+      <c r="L12" s="129">
         <v>3.8338021122699999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="130" t="s">
         <v>609</v>
       </c>
@@ -22846,20 +22938,23 @@
       <c r="G13" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="146" t="s">
         <v>628</v>
       </c>
-      <c r="I13" s="151" t="s">
+      <c r="I13" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="J13" s="129" t="s">
+      <c r="J13" s="151" t="s">
         <v>628</v>
       </c>
       <c r="K13" s="129" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="129" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="136" t="s">
         <v>609</v>
       </c>
@@ -22879,7 +22974,7 @@
         <v>628</v>
       </c>
       <c r="G14" s="135" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H14" s="135" t="s">
         <v>628</v>
@@ -22893,8 +22988,11 @@
       <c r="K14" s="135" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="135" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="152" t="s">
         <v>618</v>
       </c>
@@ -22907,8 +23005,9 @@
       <c r="I16" s="152"/>
       <c r="J16" s="152"/>
       <c r="K16" s="152"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="152"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="134" t="s">
         <v>608</v>
       </c>
@@ -22927,20 +23026,23 @@
       <c r="G17" s="129" t="s">
         <v>603</v>
       </c>
-      <c r="H17" s="129" t="s">
+      <c r="H17" s="146" t="s">
+        <v>633</v>
+      </c>
+      <c r="I17" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="144" t="s">
+      <c r="J17" s="144" t="s">
         <v>627</v>
       </c>
-      <c r="J17" s="129" t="s">
+      <c r="K17" s="129" t="s">
         <v>604</v>
       </c>
-      <c r="K17" s="129" t="s">
+      <c r="L17" s="129" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="140" t="s">
         <v>609</v>
       </c>
@@ -22963,19 +23065,22 @@
         <v>0.8134765625</v>
       </c>
       <c r="H18" s="139">
+        <v>0.80419921875</v>
+      </c>
+      <c r="I18" s="139">
         <v>2.1640625</v>
       </c>
-      <c r="I18" s="139">
+      <c r="J18" s="139">
         <v>2.52850723267</v>
       </c>
-      <c r="J18" s="140">
+      <c r="K18" s="140">
         <v>1.5244140625</v>
       </c>
-      <c r="K18" s="140">
+      <c r="L18" s="140">
         <v>2.9736328125</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="151" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="183" t="s">
         <v>609</v>
       </c>
@@ -23000,22 +23105,25 @@
         <v>4.19140625</v>
       </c>
       <c r="H19" s="151">
+        <v>4.2221794128400001</v>
+      </c>
+      <c r="I19" s="151">
         <f>4299/1024</f>
         <v>4.1982421875</v>
       </c>
-      <c r="I19" s="151">
+      <c r="J19" s="151">
         <v>4.2227554321299996</v>
       </c>
-      <c r="J19" s="151">
+      <c r="K19" s="151">
         <f>3076/1024</f>
         <v>3.00390625</v>
       </c>
-      <c r="K19" s="151">
+      <c r="L19" s="151">
         <f>4035/1024</f>
         <v>3.9404296875</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="130" t="s">
         <v>609</v>
       </c>
@@ -23039,23 +23147,26 @@
         <f>9468/1024</f>
         <v>9.24609375</v>
       </c>
-      <c r="H20" s="129">
+      <c r="H20" s="146">
+        <v>9.5191421508800005</v>
+      </c>
+      <c r="I20" s="129">
         <f>7013/1024</f>
         <v>6.8486328125</v>
       </c>
-      <c r="I20" s="144">
+      <c r="J20" s="144">
         <v>6.481590271</v>
       </c>
-      <c r="J20" s="129">
+      <c r="K20" s="129">
         <f>4620/1024</f>
         <v>4.51171875</v>
       </c>
-      <c r="K20" s="129">
+      <c r="L20" s="129">
         <f>5277/1024</f>
         <v>5.1533203125</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="130" t="s">
         <v>609</v>
       </c>
@@ -23078,23 +23189,26 @@
         <f>59276/1024</f>
         <v>57.88671875</v>
       </c>
-      <c r="H21" s="129">
+      <c r="H21" s="146">
+        <v>58.148189544700003</v>
+      </c>
+      <c r="I21" s="129">
         <f>29135/1024</f>
         <v>28.4521484375</v>
       </c>
-      <c r="I21" s="144">
+      <c r="J21" s="144">
         <v>25.206493377699999</v>
       </c>
-      <c r="J21" s="129">
+      <c r="K21" s="129">
         <f>22371/1024</f>
         <v>21.8466796875</v>
       </c>
-      <c r="K21" s="129">
+      <c r="L21" s="129">
         <f>15185/1024</f>
         <v>14.8291015625</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="130" t="s">
         <v>609</v>
       </c>
@@ -23116,23 +23230,26 @@
       <c r="G22" s="132" t="s">
         <v>620</v>
       </c>
-      <c r="H22" s="129">
+      <c r="H22" s="146" t="s">
+        <v>630</v>
+      </c>
+      <c r="I22" s="129">
         <f>76765/1024</f>
         <v>74.9658203125</v>
       </c>
-      <c r="I22" s="144">
+      <c r="J22" s="144">
         <v>61.8115234375</v>
       </c>
-      <c r="J22" s="129">
+      <c r="K22" s="129">
         <f>56048/1024</f>
         <v>54.734375</v>
       </c>
-      <c r="K22" s="129">
+      <c r="L22" s="129">
         <f>34569/1024</f>
         <v>33.7587890625</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="136" t="s">
         <v>609</v>
       </c>
@@ -23154,20 +23271,23 @@
       <c r="G23" s="135" t="s">
         <v>607</v>
       </c>
-      <c r="H23" s="135">
+      <c r="H23" s="135" t="s">
+        <v>628</v>
+      </c>
+      <c r="I23" s="135">
         <v>120.2456</v>
       </c>
-      <c r="I23" s="135">
+      <c r="J23" s="135">
         <v>118.380752563</v>
       </c>
-      <c r="J23" s="135">
+      <c r="K23" s="135">
         <v>108.4734</v>
       </c>
-      <c r="K23" s="135">
+      <c r="L23" s="135">
         <v>64.742400000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="138" t="s">
         <v>609</v>
       </c>
@@ -23180,23 +23300,32 @@
       <c r="D24" s="140">
         <v>32.6865234375</v>
       </c>
+      <c r="E24" s="140">
+        <v>193.41162872300001</v>
+      </c>
+      <c r="F24" s="140">
+        <v>17.068691253699999</v>
+      </c>
       <c r="G24" s="140">
         <v>3.9765625</v>
       </c>
       <c r="H24" s="140">
+        <v>3.9599380493199998</v>
+      </c>
+      <c r="I24" s="140">
         <v>6.6005859375</v>
       </c>
-      <c r="I24" s="140">
+      <c r="J24" s="140">
         <v>4.6881980896000002</v>
       </c>
-      <c r="J24" s="140">
+      <c r="K24" s="140">
         <v>3.984375</v>
       </c>
-      <c r="K24" s="140">
+      <c r="L24" s="140">
         <v>4.8837890625</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="151" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="183" t="s">
         <v>609</v>
       </c>
@@ -23221,22 +23350,25 @@
         <v>19.4091796875</v>
       </c>
       <c r="H25" s="151">
+        <v>19.571727752699999</v>
+      </c>
+      <c r="I25" s="151">
         <f>28174/1024</f>
         <v>27.513671875</v>
       </c>
-      <c r="I25" s="151">
+      <c r="J25" s="151">
         <v>15.263462066700001</v>
       </c>
-      <c r="J25" s="151">
+      <c r="K25" s="151">
         <f>18354/1024</f>
         <v>17.923828125</v>
       </c>
-      <c r="K25" s="151">
+      <c r="L25" s="151">
         <f>12777/1024</f>
         <v>12.4775390625</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="130" t="s">
         <v>609</v>
       </c>
@@ -23259,23 +23391,26 @@
         <f>57608/1024</f>
         <v>56.2578125</v>
       </c>
-      <c r="H26" s="129">
+      <c r="H26" s="146">
+        <v>56.7437934875</v>
+      </c>
+      <c r="I26" s="129">
         <f>55032/1024</f>
         <v>53.7421875</v>
       </c>
-      <c r="I26" s="144">
+      <c r="J26" s="144">
         <v>29.190628051800001</v>
       </c>
-      <c r="J26" s="129">
+      <c r="K26" s="129">
         <f>36133/1024</f>
         <v>35.2861328125</v>
       </c>
-      <c r="K26" s="129">
+      <c r="L26" s="129">
         <f>25721/1024</f>
         <v>25.1181640625</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="130" t="s">
         <v>609</v>
       </c>
@@ -23297,23 +23432,26 @@
       <c r="G27" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="H27" s="129">
+      <c r="H27" s="146" t="s">
+        <v>628</v>
+      </c>
+      <c r="I27" s="129">
         <f>123582/1024</f>
         <v>120.685546875</v>
       </c>
-      <c r="I27" s="144">
+      <c r="J27" s="144">
         <v>119.87862777700001</v>
       </c>
-      <c r="J27" s="129">
+      <c r="K27" s="129">
         <f>120640/1024</f>
         <v>117.8125</v>
       </c>
-      <c r="K27" s="129">
+      <c r="L27" s="129">
         <f>119364/1024</f>
         <v>116.56640625</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="130" t="s">
         <v>609</v>
       </c>
@@ -23335,20 +23473,23 @@
       <c r="G28" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="H28" s="129" t="s">
-        <v>628</v>
-      </c>
-      <c r="I28" s="151" t="s">
-        <v>628</v>
-      </c>
-      <c r="J28" s="129" t="s">
+      <c r="H28" s="146" t="s">
+        <v>630</v>
+      </c>
+      <c r="I28" s="129" t="s">
+        <v>630</v>
+      </c>
+      <c r="J28" s="151" t="s">
         <v>628</v>
       </c>
       <c r="K28" s="129" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="129" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="136" t="s">
         <v>609</v>
       </c>
@@ -23382,15 +23523,19 @@
       <c r="K29" s="135" t="s">
         <v>628</v>
       </c>
+      <c r="L29" s="135" t="s">
+        <v>628</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
